--- a/CSF441/Python Basics/StudentData.xlsx
+++ b/CSF441/Python Basics/StudentData.xlsx
@@ -1,137 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIT\Desktop\DEEP LEARNING\P1 C\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9780"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>S No.</t>
-  </si>
-  <si>
-    <t>R No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1000015480</t>
-  </si>
-  <si>
-    <t>Divyanshi Sahu</t>
-  </si>
-  <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1000015445</t>
-  </si>
-  <si>
-    <t>Manimit Haldar</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1000015613</t>
-  </si>
-  <si>
-    <t>Sandeep Chauhan</t>
-  </si>
-  <si>
-    <t>B.Ed</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1000019855</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1000015796</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>Aditya Bhatkoti</t>
-  </si>
-  <si>
-    <t>B.Sc</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,157 +420,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>S No.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R No.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000015445</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Manimit Haldar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B.Tech CSE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1000015575</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tanya Rajpoot</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B.A English (Hons.)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1000014215</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rishi Dwivedi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B.Tech CSE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1000015577</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Priyanka Garg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B.Sc Physics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1000015049</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Raj Krishna</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ph.D Psychology</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1000014484</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Srijan Kunwar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M.Tech IT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1000015620</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1000015489</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Shreya Umrao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B.Pharm</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>